--- a/common/sentences_s1.xlsx
+++ b/common/sentences_s1.xlsx
@@ -1087,9 +1087,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="94" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/common/sentences_s1.xlsx
+++ b/common/sentences_s1.xlsx
@@ -16,254 +16,1031 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
-    <t>A fada dos dentes faz parte de um conto antigo para crianças.</t>
-  </si>
-  <si>
-    <t>A religião é comum no Brasil, mesmo o Estado sendo laico.</t>
-  </si>
-  <si>
-    <t>Estudo diz: grande parte do país pode ficar mais frio que o normal.</t>
-  </si>
-  <si>
-    <t>Bancos preveem crescimento maior que no mesmo mês do ano passado.</t>
-  </si>
-  <si>
-    <t>Ele não soube notar a presença de seu amigo na mesma sala.</t>
-  </si>
-  <si>
-    <t>As frases simples são as mais fáceis de lembrar, mesmo após muito tempo.</t>
-  </si>
-  <si>
-    <t>O encontro do grupo de culinária seria no hotel, mas choveu.</t>
-  </si>
-  <si>
-    <t>Quando viu o homem entrar, sua filha já havia saído de casa.</t>
-  </si>
-  <si>
-    <t>Lá mora uma avó cega que precisa de cuidados dos outros.</t>
-  </si>
-  <si>
-    <t>Pessoas de bom senso não se deixam enganar por belas aparências.</t>
-  </si>
-  <si>
-    <t>Colher milho nunca foi a tarefa mais divertida de acordo com Zé.</t>
-  </si>
-  <si>
-    <t>Crescer perto da Lapa, dia e noite na rua, o motivou a agir.</t>
-  </si>
-  <si>
-    <t>Os grandes sinos da torre relembram os dias de glória da nação.</t>
-  </si>
-  <si>
-    <t>Até mesmo o vento soa estranho em um local assim, tão deserto.</t>
-  </si>
-  <si>
-    <t>As gavetas estão cheias de talheres e as paredes lembram museus.</t>
-  </si>
-  <si>
-    <t>Chegou a hora de ir à praia, a tal viagem esperada por todos.</t>
-  </si>
-  <si>
-    <t>Cães e gatos geralmente não se dão bem, mas aqueles dois são anormais.</t>
-  </si>
-  <si>
-    <t>Logo após bater o carro, Lucas desmaiou e não pôde nos avisar.</t>
-  </si>
-  <si>
-    <t>Nossa fome fez parecer que a laranja foi a melhor que já comemos.</t>
-  </si>
-  <si>
-    <t>Brinquedos são, pelos bebês, os presentes favoritos de natal e páscoa.</t>
-  </si>
-  <si>
-    <t>Este bar serve peixe frito, bife duro, suco, coca, torta e pão.</t>
-  </si>
-  <si>
-    <t>Eles não sabem que cães fazem xixi em todos os postes desta rua.</t>
-  </si>
-  <si>
-    <t>Elas seguem reto porque sabem que lá está a sua casa nova.</t>
-  </si>
-  <si>
-    <t>Somos muito amigos e temos as mesmas coisas pra brincar na escola.</t>
-  </si>
-  <si>
-    <t>Chama a tua mãe pra te ajudar a fazer aquele tema estranho.</t>
-  </si>
-  <si>
-    <t>Caí da escada e não quebrei nada, mas torci os pés e os braços.</t>
-  </si>
-  <si>
-    <t>Alguns gostam de carne, outros preferem plantas e outros aceitam os dois.</t>
-  </si>
-  <si>
-    <t>Eles são lindos, espertos e fortes, mas não têm ninguém pra namorar.</t>
-  </si>
-  <si>
-    <t>Subir a montanha à noite não é seguro porque vocês podem cair.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ele correu sem parar até chegar no lugar em que elas estavam </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mando em tudo nesta casa, disse o homem com a barba por fazer. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saiba que o pato do lago gosta de pão, de bolo, de uva e de manga. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesmo que eles não te vejam lá, eles sentirão a tua presença. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sentei na cadeira depois de ter ido à praia porque estava podre. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conte até dez e fale baixo para não acordar seus primos mais novos. </t>
-  </si>
-  <si>
-    <t>Não vá para a nova parte do bairro, não conhecemos quem mora lá.</t>
-  </si>
-  <si>
-    <t>Sempre procuro ter a calma que preciso para cumprir a missão.</t>
-  </si>
-  <si>
-    <t>Logo que vi o sujeito corri para alcançá-lo, mas não consegui.</t>
-  </si>
-  <si>
-    <t>Como a nossa querida tia dizia, há males que vêm pra bem.</t>
-  </si>
-  <si>
-    <t>Ele e seu cachorro são uma dupla e tanto desde pequenos.</t>
-  </si>
-  <si>
-    <t>A frente com janelas para a rua é a preferida pelo casal.</t>
-  </si>
-  <si>
-    <t>Quando for conveniente, venha ver se lhe dou o seu salário.</t>
-  </si>
-  <si>
-    <t>O lugar afirma servir a melhor porção de doce de frutas com mel.</t>
-  </si>
-  <si>
-    <t>Não podemos duvidar que todos eles foram forçados a participar.</t>
-  </si>
-  <si>
-    <t>Molhe com água os canteiros com lírios, eles agradecem muito.</t>
-  </si>
-  <si>
-    <t>A qualquer momento podemos esquecer tudo que lembramos e sentimos.</t>
-  </si>
-  <si>
-    <t>Já completei o álbum da outra Copa, quero repetir o feito.</t>
-  </si>
-  <si>
-    <t>O animal é todo negro, grande e muito raro nesta região.</t>
-  </si>
-  <si>
-    <t>Em menos de cinco anos pretendo comprar minha casa na praia.</t>
-  </si>
-  <si>
-    <t>A maneira como se comporta indica que ela é cantora.</t>
-  </si>
-  <si>
-    <t>Não tema, fico contigo até seu pai chegar e te levar embora.</t>
-  </si>
-  <si>
-    <t>Ele ainda não tinha ensaiado a música, mas subiu no palco.</t>
-  </si>
-  <si>
-    <t>Quero saber se você aceita um copo de suco de abacaxi.</t>
-  </si>
-  <si>
-    <t>Não entenderam o motivo de tanto orgulho por parte dela.</t>
-  </si>
-  <si>
-    <t>O café que ofereceram tinha muito açúcar, quase um melado.</t>
-  </si>
-  <si>
-    <t>Vista o paletó, anunciaram que lá fora está quase nevando.</t>
-  </si>
-  <si>
-    <t>Escrever frases com determinado número de sílabas é difícil.</t>
-  </si>
-  <si>
-    <t>Textos infantis ajudam a melhorar a memória de crianças.</t>
-  </si>
-  <si>
-    <t>A menina beija sua mãe quando lembra do irmão que está por vir.</t>
-  </si>
-  <si>
-    <t>Não conseguia acreditar que o Papai Noel nunca existiu.</t>
-  </si>
-  <si>
-    <t>Para ele é importante cada dia se sentir melhor no que faz.</t>
-  </si>
-  <si>
-    <t>As plantas podem crescer com a ajuda de água e da luz do Sol.</t>
-  </si>
-  <si>
-    <t>Os políticos foram eleitos com a maioria dos votos do povo.</t>
-  </si>
-  <si>
-    <t>Aquele museu tinha ossos de animais tão grandes, raros e antigos.</t>
-  </si>
-  <si>
-    <t>Quando pescou seu primeiro peixe, preferiu devolvê-lo ao lago.</t>
-  </si>
-  <si>
-    <t>Ao dizer adeus, pôde apenas desejar boa sorte ao professor.</t>
-  </si>
-  <si>
-    <t>Penso que todos devem visitar aquele local uma vez na vida.</t>
-  </si>
-  <si>
-    <t>Gostaria de poder sentar com sua avó e tecer uma meia.</t>
-  </si>
-  <si>
-    <t>O casulo pode não ser bonito, mas as asas da borboleta são.</t>
-  </si>
-  <si>
-    <t>Errava sempre ao mirar o alvo com seu arco e flecha de índios.</t>
-  </si>
-  <si>
-    <t>A lancheria da praça não é mais como já foi no tempo dele.</t>
-  </si>
-  <si>
-    <t>Os partidos andam agindo de forma a apoiar uma guerra civil.</t>
-  </si>
-  <si>
-    <t>Bombas e armas cada dia mais fortes, não sabemos onde vamos parar.</t>
-  </si>
-  <si>
-    <t>Os ratos têm medo de felinos porque sabem que eles são perigosos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meus vizinhos perturbam a todos com o barulho das festas que fazem. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seus pais lhe deram carro, casa, viagens, dinheiro e até um emprego. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sempre juntos, o guri e a guria brincavam no parque de diversões. </t>
-  </si>
-  <si>
-    <t>Cada um de nós é especial, disse o mestre com um sorriso.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pode ser difícil, mas não se deve desistir assim na primeira vez. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quando era menor, não podia ver os filmes que pode ver hoje. </t>
-  </si>
-  <si>
     <t>sentences</t>
+  </si>
+  <si>
+    <t>A fada dos dentes faz parte de um conto antigo para meninos</t>
+  </si>
+  <si>
+    <t>Ele não soube notar a presença de seu amigo na mesma sala</t>
+  </si>
+  <si>
+    <t>Dispunham apenas de cones e vassouras para isolar o local</t>
+  </si>
+  <si>
+    <t>Quando era criança, ela não podia ver os filmes que pode ver hoje</t>
+  </si>
+  <si>
+    <t>Cães e gatos geralmente não se dão bem, mas aqueles dois são amigáveis</t>
+  </si>
+  <si>
+    <t>Não entenderam por que motivo ela estava demonstrando tanto orgulho</t>
+  </si>
+  <si>
+    <t>Somos muito amigos e temos as mesmas coisas para brincar no pátio</t>
+  </si>
+  <si>
+    <t>Mesmo que eles não te vejam lá, eles sentirão a tua presença</t>
+  </si>
+  <si>
+    <t>Falei para meus clientes que eles eram os grandes vencedores</t>
+  </si>
+  <si>
+    <t>A lancheria da praça não é mais como já foi em outra época</t>
+  </si>
+  <si>
+    <t>A religião é comum no Brasil, mesmo o Estado sendo laico</t>
+  </si>
+  <si>
+    <t>Aquele museu tinha ossos de animais tão grandes, todos raros e antigos</t>
+  </si>
+  <si>
+    <t>Seus pais lhe deram tudo o que ele precisava, até um emprego</t>
+  </si>
+  <si>
+    <t>Até mesmo o vento soa estranho em um local assim, tão deserto</t>
+  </si>
+  <si>
+    <t>Sempre procuro ter a calma que preciso para cumprir a missão</t>
+  </si>
+  <si>
+    <t>A capa de chuva rasgou e por isso não funciona mais direito</t>
+  </si>
+  <si>
+    <t>O trânsito é tão intenso que os estacionamentos estão sempre lotados</t>
+  </si>
+  <si>
+    <t>O quarto com janelas para a rua é o preferido pelo casal</t>
+  </si>
+  <si>
+    <t>A parada de ônibus dessa rua é muito bem localizada</t>
+  </si>
+  <si>
+    <t>Os políticos foram eleitos com a maioria dos votos do povo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O concreto </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>armabo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> é uma técnica de construção muito complexa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Eu não gosto de quem conta </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">mendiras </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nem de quem trai os amigos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sentei na cadeira depois de ter </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ibo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> à praia porque estava exausto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Já completei o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>áldum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> da outra Copa, quero repetir o feito</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Depois de passar por um </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>acibente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, ele não pode formar novas memórias</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A moça gosta de comprar muitas peças de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>rouda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> nas lojas do centro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ele admitiu que a tela em óleo é </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>linba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, mesmo preferindo aquarela</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A qualquer momento </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pobemos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> esquecer tudo que lembramos e sentimos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pessoas de bom senso não se </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>beixam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> enganar pela aparência</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Meus vizinhos perturbam a todos com o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>darulho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> de festas com fogos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Faço tudo o que posso para melhorar a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">caba </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>dia como ser humano</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Faz tempo que ele não </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>manba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> cartas para suas amigas de infância</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A leitura de textos ajuda a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">melborar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a memória de significados</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Combinei de buscar a minha </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>filba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> na escola hoje depois da yoga</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Meu filho vai crescer e se tornar um </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>mébico</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> famoso no continente</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gostaria de poder sentar com a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>minba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> avó e tecer uma meia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Os ratos têm medo de felinos porque </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sadem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> que eles são caçadores</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Eles não sabem que cães fazem xixi em </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tobos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> os postes deste bairro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">É claro que os peixes não podem </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>anbar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> na praia, mas podem nadar no mar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Eles têm diversas boas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>qualibades</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, mas estão o tempo todo sozinhos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Após o acidente, ele precisou </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>combrar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> um novo jogo de rodas</t>
+    </r>
+  </si>
+  <si>
+    <t>O branco dos olhos dele tem quase o mesmo tom daquelas nuvens</t>
+  </si>
+  <si>
+    <t>A encomenda foi entregue com cinco dias de atraso pelo carteiro</t>
+  </si>
+  <si>
+    <t>Ele correu sem parar até chegar no lugar onde elas esperavam</t>
+  </si>
+  <si>
+    <t>Quando pescou seu primeiro peixe, ele preferiu devolvê-lo ao lago</t>
+  </si>
+  <si>
+    <t>Sou livre para sentir qualquer coisa, mas não para agir como eu quiser</t>
+  </si>
+  <si>
+    <t>Não vá para a parte do bairro onde não conhecemos os novos moradores</t>
+  </si>
+  <si>
+    <t>Mando em tudo nesta casa, disse o homem com o corpo manchado</t>
+  </si>
+  <si>
+    <t>Ele vai à igreja todos os dias para pedir perdão pelos pecados</t>
+  </si>
+  <si>
+    <t>Você pode chamar a sua mãe para lhe ajudar com aquela tarefa</t>
+  </si>
+  <si>
+    <t>O pote de água está cheio porque o cão não está com sede</t>
+  </si>
+  <si>
+    <t>Não me restam dúvidas de que este matagal é bem seguro</t>
+  </si>
+  <si>
+    <t>A porta de alumínio entortou, por isso ela deveria ser de aço</t>
+  </si>
+  <si>
+    <t>Chegou a hora de ir à praia, a viagem tão esperada pela prima</t>
+  </si>
+  <si>
+    <t>Subir a montanha à noite não é seguro porque vocês podem cair</t>
+  </si>
+  <si>
+    <t>Ele ficou emocionado com o prêmio que ganhou do seu chefe de setor</t>
+  </si>
+  <si>
+    <t>Nós somos amigos porque há muitos anos nós éramos vizinhos</t>
+  </si>
+  <si>
+    <t>O encontro do grupo de culinária seria ao ar livre, mas choveu</t>
+  </si>
+  <si>
+    <t>Penso que todos devem visitar aquele local uma vez na vida</t>
+  </si>
+  <si>
+    <t>Só quem é mãe sabe como é dar de mamar para um bebê recém nascido</t>
+  </si>
+  <si>
+    <t>Brasil é o país com o maior número de medalhas de prata</t>
+  </si>
+  <si>
+    <t>Molhe com água os canteiros de lírios frequentemente para eles crescerem</t>
+  </si>
+  <si>
+    <t>Placas de trânsito devem ser postas no cruzamento dessas duas quadras</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Você não pode ir comigo porque estou </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>inbo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> para o escritório</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O teclado produz um ótimo som, que é </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">parecibo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>com o de um piano</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O urso é um animal, é escuro, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">granbe </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e muito raro nesta região</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Meu cão é manso com quem ele gosta e </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>dravo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> com quem ele odeia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ele e seu cachorro são uma </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">bupla </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e tanto desde pequenos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Os patos que estão nadando no lago </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>aboram</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> comer pão e manga</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ele ainda não tinha </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ensaiabo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a música, mas subiu no palco</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Caí da escada e não quebrei </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nenbum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> membro, mas torci o pé e a mão</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">“Cada um de nós é especial”, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">bisse </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>o mestre com um sorriso</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Avise-nos se minha família e eu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pubermos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ajudar com a mudança</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Meu ex-noivo podia ter me </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>avisabo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> que não queria mesmo se casar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fiz um belo bolo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>coloribo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> para o aniversário da minha mãe</t>
+    </r>
+  </si>
+  <si>
+    <t>Para acompanhar a massa fobada, a moça optou por um café com nata</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Elas seguem reto porque </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sadem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> que lá está a sua casa dos sonhos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O casulo pode não ser bonito, mas as asas da </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bordoleta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> são incríveis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Não conseguia </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>acrebitar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> que o Papai Noel nunca havia existido</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Em menos de cinco anos </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pretenbo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> comprar a minha casa no bosque</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +1176,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -581,7 +1391,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -696,6 +1506,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -741,8 +1566,25 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1087,421 +1929,422 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="94" customWidth="1"/>
+    <col min="1" max="1" width="94" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="79" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="80" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="81" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>